--- a/src/test/resources/org/bbreak/excella/reports/tag/ColRepeatParamParserTest.xlsx
+++ b/src/test/resources/org/bbreak/excella/reports/tag/ColRepeatParamParserTest.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1845" yWindow="-330" windowWidth="15480" windowHeight="11040" firstSheet="7" activeTab="13"/>
+    <workbookView xWindow="9060" yWindow="2130" windowWidth="15480" windowHeight="11040" firstSheet="8" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,14 @@
     <sheet name="Sheet12" sheetId="18" r:id="rId12"/>
     <sheet name="Sheet13" sheetId="19" r:id="rId13"/>
     <sheet name="Sheet14" sheetId="20" r:id="rId14"/>
+    <sheet name="Sheet15" sheetId="21" r:id="rId15"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
   <si>
     <t>1D</t>
     <phoneticPr fontId="1"/>
@@ -403,6 +404,56 @@
   </si>
   <si>
     <t>$C[]{A,copyColumnWidth=true}</t>
+  </si>
+  <si>
+    <t>$C[]{A,minRepeatNum=5}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$C[]{B,minRepeatNum=4}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>H8</t>
+  </si>
+  <si>
+    <t>H9</t>
+  </si>
+  <si>
+    <t>H10</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>G10</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -469,7 +520,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -560,6 +611,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -627,7 +684,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -743,6 +800,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1543,7 +1606,7 @@
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1587,7 +1650,7 @@
   </sheetData>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1639,7 +1702,7 @@
   </sheetData>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1689,7 +1752,7 @@
   </sheetData>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1697,7 +1760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -1731,7 +1794,112 @@
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="H1" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="B2" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="C3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="D4" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="39"/>
+      <c r="H4" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="E5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="H6" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="H7" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="H8" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="H9" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F5:G5"/>
+  </mergeCells>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2366,7 +2534,7 @@
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2541,6 +2709,6 @@
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>